--- a/biology/Médecine/Rameau_profond_du_nerf_plantaire_latéral/Rameau_profond_du_nerf_plantaire_latéral.xlsx
+++ b/biology/Médecine/Rameau_profond_du_nerf_plantaire_latéral/Rameau_profond_du_nerf_plantaire_latéral.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rameau_profond_du_nerf_plantaire_lat%C3%A9ral</t>
+          <t>Rameau_profond_du_nerf_plantaire_latéral</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
 Le rameau profond du nerf plantaire latéral est un nerf moteur du pied.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Rameau_profond_du_nerf_plantaire_lat%C3%A9ral</t>
+          <t>Rameau_profond_du_nerf_plantaire_latéral</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le rameau profond du nerf plantaire latéral est une branche terminale motrice du nerf plantaire latéral.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Rameau_profond_du_nerf_plantaire_lat%C3%A9ral</t>
+          <t>Rameau_profond_du_nerf_plantaire_latéral</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Trajet</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le rameau profond du nerf plantaire latéral accompagne l'artère plantaire latérale sur la surface profonde des tendons des muscles fléchisseurs des orteils et du muscle adducteur de l'hallux.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Rameau_profond_du_nerf_plantaire_lat%C3%A9ral</t>
+          <t>Rameau_profond_du_nerf_plantaire_latéral</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Zone d'innervation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le rameau profond du nerf plantaire latéral innerve tous les muscles interosseux du pied sauf ceux du quatrième espace métatarsien. Il innerve également les second, troisième et quatrième muscles lombricaux du pied.
 </t>
